--- a/src/main/resources/python/MultifacetedModeling/DataInput/uploadedFile-split.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataInput/uploadedFile-split.xlsx
@@ -497,7 +497,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -601,7 +601,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -653,7 +653,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -705,7 +705,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -757,7 +757,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>73</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -809,7 +809,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -861,7 +861,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -913,7 +913,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -965,7 +965,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1069,7 +1069,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1121,7 +1121,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1173,7 +1173,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1225,7 +1225,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1277,7 +1277,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1329,7 +1329,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1381,7 +1381,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1433,7 +1433,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1485,7 +1485,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1537,7 +1537,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1589,7 +1589,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1641,7 +1641,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1693,7 +1693,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1745,7 +1745,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1797,7 +1797,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1849,7 +1849,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1901,7 +1901,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1953,7 +1953,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2005,7 +2005,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>77</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2057,7 +2057,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2109,7 +2109,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2161,7 +2161,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2213,7 +2213,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2265,7 +2265,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>82</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2317,7 +2317,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2369,7 +2369,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2421,7 +2421,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2473,7 +2473,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2525,7 +2525,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2577,7 +2577,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2629,7 +2629,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2681,7 +2681,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>67</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2733,7 +2733,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2856,7 +2856,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2908,7 +2908,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2960,7 +2960,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3012,7 +3012,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3064,7 +3064,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3116,7 +3116,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3168,7 +3168,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3220,7 +3220,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3272,7 +3272,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3324,7 +3324,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3376,7 +3376,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3428,7 +3428,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3480,7 +3480,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3532,7 +3532,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3584,7 +3584,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3636,7 +3636,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3688,7 +3688,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3740,7 +3740,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3792,7 +3792,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3915,7 +3915,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3967,7 +3967,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4019,7 +4019,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4071,7 +4071,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4123,7 +4123,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4175,7 +4175,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>70</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4227,7 +4227,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4279,7 +4279,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -4331,7 +4331,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -4383,7 +4383,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -4435,7 +4435,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>81</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -4487,7 +4487,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -4539,7 +4539,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -4591,7 +4591,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -4643,7 +4643,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -4695,7 +4695,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>79</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -4747,7 +4747,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -4799,7 +4799,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4851,7 +4851,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4903,7 +4903,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4955,7 +4955,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>74</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -5007,7 +5007,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">

--- a/src/main/resources/python/MultifacetedModeling/DataInput/uploadedFile-split.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataInput/uploadedFile-split.xlsx
@@ -497,458 +497,458 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>67</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>49</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>19</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>34</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>49</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>59</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>58</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>58</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>24</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>84</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>16</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>80</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>72</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>32</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>38</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>76</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>53</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>84</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>78</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>78</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>55</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>81</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>52</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>29</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>26</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -958,613 +958,613 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>43</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>33</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>42</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>63</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>72</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>75</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>32</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>70</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>76</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>79</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>36</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>53</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>61</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>11</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>12</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>77</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>57</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>67</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>46</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>24</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>62</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>78</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>43</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>77</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>83</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>78</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>46</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>28</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>39</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>51</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>41</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>27</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>79</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>50</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>80</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>58</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>55</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>33</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
       <c r="G22" t="inlineStr">
         <is>
           <t>71</t>
@@ -1572,34 +1572,34 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>33</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>46</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1609,1176 +1609,1176 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>49</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>71</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>71</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>55</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>60</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>51</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>24</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>44</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>45</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>69</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>64</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>47</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>66</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>26</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>72</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>80</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>61</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
           <t>54</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>79</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>34</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>65</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>84</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>42</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>84</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>66</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>37</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>18</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>37</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>75</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>65</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>44</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>49</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>45</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>79</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>65</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>42</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>64</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>51</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>64</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>81</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>69</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>73</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>33</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>31</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>37</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>73</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>32</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>74</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
           <t>48</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>67</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>79</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>70</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>73</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>55</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>81</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>63</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>83</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>54</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>83</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>53</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>38</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>55</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>35</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>72</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
           <t>56</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>73</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>61</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>61</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>52</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>61</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -2856,193 +2856,193 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>57</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>51</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>71</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>81</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>32</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>14</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>73</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>68</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>74</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>55</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>42</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -3052,792 +3052,792 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>82</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>67</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>68</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>56</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>83</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>21</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>60</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>77</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>36</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>66</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>69</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>73</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>48</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>45</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>69</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>17</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>48</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>79</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>77</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>68</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>65</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>68</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>59</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>66</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>74</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>30</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>66</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>32</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>59</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>36</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>79</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>56</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>27</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>82</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>62</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>40</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>63</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>39</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>31</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>44</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>66</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>84</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>43</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>57</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>82</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>76</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>63</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>59</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>52</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>73</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>83</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>75</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>39</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>82</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>34</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -3915,1144 +3915,1144 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>57</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>72</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>68</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>27</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>84</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>84</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>46</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>41</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>72</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>61</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>29</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>53</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>38</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>33</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>79</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>38</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>69</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>29</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>76</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>75</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>77</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>81</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>39</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>67</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>47</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>39</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>23</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>63</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>35</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>77</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>28</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>22</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>47</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>66</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>59</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>62</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>65</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>71</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>70</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>83</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>31</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>54</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>58</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>83</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>74</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>47</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>56</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>46</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>19</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>74</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>75</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>57</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>36</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>52</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>69</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>34</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>27</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>49</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>82</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>56</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>62</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>69</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>77</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>70</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>74</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>52</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>64</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>35</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>37</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>64</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>80</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>71</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>76</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>59</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>70</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>65</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>74</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>82</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>44</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataInput/uploadedFile-split.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataInput/uploadedFile-split.xlsx
@@ -497,1535 +497,1535 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>42</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>22</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>66</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>77</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>78</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>71</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>69</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>38</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>59</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>37</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>57</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>47</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>26</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>53</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>79</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>21</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>78</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>54</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>44</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>61</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>70</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>51</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>73</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>82</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>33</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>59</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>66</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>55</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>84</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>79</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>48</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>66</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>53</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>59</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>53</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>70</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>66</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>65</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>53</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>32</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>49</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>79</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>61</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>69</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>55</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>82</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>78</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>70</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>70</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>61</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>45</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>37</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>69</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>79</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>77</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>66</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>42</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>47</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>16</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>83</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>70</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>41</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>54</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>38</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>77</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>82</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>26</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>54</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>72</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>36</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>37</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
           <t>75</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>71</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>75</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
           <t>60</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>24</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>52</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>74</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>75</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>60</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>81</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>27</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>77</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>70</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>67</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>58</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>45</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>61</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>65</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>42</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>38</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>28</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>55</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>43</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>39</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>68</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>65</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2035,210 +2035,210 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>46</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>45</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>76</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>62</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>57</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>56</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>74</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>74</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>62</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>58</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>58</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>34</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>73</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>38</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2248,101 +2248,101 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>77</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>71</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>83</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>83</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>67</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>55</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2352,433 +2352,433 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>75</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>65</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>73</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>41</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>42</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>66</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>67</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>63</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
           <t>32</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>74</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>42</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>41</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>82</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>43</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>32</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
       <c r="E41" t="inlineStr">
         <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>37</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>80</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>75</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>64</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>48</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>84</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>62</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>62</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>33</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>44</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>51</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>29</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>76</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>83</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>73</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2856,433 +2856,433 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>46</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>75</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>39</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>73</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>80</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>81</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>74</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>15</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>36</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>43</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>52</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>24</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>64</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>73</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>66</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>45</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>84</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>44</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -3292,552 +3292,552 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>77</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>68</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>58</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>68</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>79</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>49</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>31</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>29</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>63</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>69</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>65</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>53</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>79</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>7</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>27</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>69</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>41</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>59</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>47</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>74</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>81</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>77</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>82</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>59</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>62</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>59</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>74</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>81</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>37</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>38</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>83</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>35</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>80</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>44</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>72</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>67</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>61</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>58</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>72</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>61</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -3915,99 +3915,99 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>71</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>71</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>33</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>63</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>40</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>49</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -4019,193 +4019,193 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>29</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>56</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>82</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>52</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>56</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>70</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>52</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>62</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>33</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>69</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>46</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>26</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -4215,133 +4215,133 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>80</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>52</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -4351,116 +4351,116 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>24</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>33</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>35</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>56</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -4470,589 +4470,589 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>57</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>19</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>78</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>19</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>56</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>71</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>71</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>49</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>24</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>68</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>46</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>65</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>68</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>68</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>62</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>41</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>55</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>57</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>76</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>67</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>49</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>31</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>39</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>74</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>74</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>80</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>49</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>18</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>41</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>67</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>63</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>14</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>71</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>28</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>22</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>73</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>51</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>31</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>48</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataInput/uploadedFile-split.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataInput/uploadedFile-split.xlsx
@@ -497,1936 +497,1936 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>77</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>59</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>26</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>77</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>52</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>49</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>48</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>57</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>79</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>27</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>14</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>53</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>45</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>75</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>45</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>73</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>39</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>84</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>32</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>58</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>59</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>56</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>36</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>76</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>67</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>42</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>33</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>32</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>27</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>83</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>65</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>76</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>47</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>76</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>70</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>63</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>33</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>73</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>58</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>82</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>83</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>66</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>18</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>81</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>70</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>74</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>63</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>51</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>35</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>55</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>78</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>49</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>70</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>59</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>79</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>34</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>60</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>57</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>84</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>16</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>34</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>78</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>39</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>67</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>74</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>59</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>22</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>30</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>74</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>61</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>59</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>66</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>69</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>58</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>29</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>49</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>55</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>71</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>53</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>64</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>31</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>65</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>57</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>52</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
           <t>45</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>11</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>62</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>56</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>47</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>81</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>82</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>68</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>61</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>83</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>48</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>80</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>79</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>37</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>67</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>74</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>58</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>78</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>67</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>66</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>15</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>64</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>34</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>71</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>66</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>75</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>84</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>78</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>68</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>26</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>26</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>64</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>31</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>84</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>56</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>28</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>83</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2436,84 +2436,84 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>63</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>84</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>51</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>72</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>77</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>73</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>38</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>49</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2525,260 +2525,260 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>69</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>70</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>31</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>51</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>73</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>43</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>65</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>58</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>46</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>77</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>71</t>
         </is>
       </c>
     </row>
@@ -2856,173 +2856,173 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>45</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>37</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>57</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>77</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>43</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>38</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>28</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>62</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>38</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>68</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>54</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3032,247 +3032,247 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>66</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>82</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>73</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>70</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>77</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>44</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>52</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>24</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>79</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>68</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>65</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>54</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>46</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>37</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>83</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>36</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>44</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>56</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>61</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>79</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>33</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3282,562 +3282,562 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>36</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>72</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>74</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>38</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>69</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>62</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>38</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>53</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>74</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>43</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>72</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>32</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>70</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>71</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>73</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>17</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>70</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>81</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>19</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>7</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>54</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>67</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>49</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>66</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>28</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>82</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>41</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>51</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>17</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>59</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>67</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>53</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>52</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>42</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>59</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>48</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>65</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>76</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>49</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>75</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -3915,547 +3915,547 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>41</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>60</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>79</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>58</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>24</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>84</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>46</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>81</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>66</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>50</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>69</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>52</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>41</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>32</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>77</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>63</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>71</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>63</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>41</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>44</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>61</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>55</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>62</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>75</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>51</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>66</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>29</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>52</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>24</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>22</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -4465,148 +4465,148 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>40</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>61</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>47</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>78</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>64</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>55</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>84</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -4616,428 +4616,428 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>28</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>59</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>44</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>61</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>41</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>39</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>61</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>43</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>70</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
           <t>80</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>41</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>63</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>55</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>57</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>32</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>24</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>36</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>81</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>64</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>46</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>27</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>80</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>42</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -5047,12 +5047,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>70</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>58</t>
         </is>
       </c>
     </row>
